--- a/output/example_folder/spb_targets_4y.xlsx
+++ b/output/example_folder/spb_targets_4y.xlsx
@@ -525,36 +525,36 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181</v>
+        <v>0.336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.207</v>
+        <v>0.36</v>
       </c>
       <c r="H2" t="n">
-        <v>0.619</v>
+        <v>0.645</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.969</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.043</v>
+        <v>0.133</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.383</v>
+        <v>2.903</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>2.383</v>
+        <v>2.903</v>
       </c>
       <c r="O2" t="n">
-        <v>2.383</v>
+        <v>2.903</v>
       </c>
     </row>
     <row r="3">
@@ -572,34 +572,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.546</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.276</v>
+        <v>1.525</v>
       </c>
       <c r="F3" t="n">
-        <v>1.046</v>
+        <v>1.297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.608</v>
+        <v>0.867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.349</v>
+        <v>0.503</v>
       </c>
       <c r="I3" t="n">
-        <v>1.276</v>
+        <v>1.525</v>
       </c>
       <c r="J3" t="n">
-        <v>0.842</v>
+        <v>1.117</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.842</v>
+        <v>1.117</v>
       </c>
       <c r="O3" t="n">
-        <v>1.276</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="4">
@@ -617,34 +617,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.384</v>
+        <v>-3.566</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.104</v>
+        <v>-3.281</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.99</v>
+        <v>-3.169</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.353</v>
+        <v>-3.534</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.879</v>
+        <v>-4.099</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.99</v>
+        <v>-3.169</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.114</v>
+        <v>-2.261</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.114</v>
+        <v>-2.261</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.114</v>
+        <v>-2.261</v>
       </c>
     </row>
     <row r="5">
@@ -662,34 +662,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.991</v>
+        <v>-0.792</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.626</v>
+        <v>-0.425</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.582</v>
+        <v>-0.383</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.955</v>
+        <v>-0.756</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.584</v>
+        <v>-0.28</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.582</v>
+        <v>-0.28</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.197</v>
+        <v>-1.099</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.197</v>
+        <v>-1.099</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.582</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="6">
@@ -707,34 +707,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.641</v>
+        <v>-0.607</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.307</v>
+        <v>-0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.227</v>
+        <v>-0.191</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.632</v>
+        <v>-0.556</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.475</v>
+        <v>-0.286</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.227</v>
+        <v>-0.191</v>
       </c>
       <c r="J6" t="n">
-        <v>0.398</v>
+        <v>0.357</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.398</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>0.398</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="7">
@@ -752,34 +752,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.516</v>
+        <v>-0.417</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.204</v>
+        <v>-0.111</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.116</v>
+        <v>-0.018</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.489</v>
+        <v>-0.391</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.107</v>
+        <v>-1.186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.116</v>
+        <v>-0.018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.452</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.452</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.452</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -797,34 +797,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.279</v>
+        <v>-3.056</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.983</v>
+        <v>-2.755</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.862</v>
+        <v>-2.639</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.256</v>
+        <v>-3.031</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.366</v>
+        <v>-5</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.862</v>
+        <v>-2.639</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.502</v>
+        <v>-1.377</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.502</v>
+        <v>-1.377</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.502</v>
+        <v>-1.377</v>
       </c>
     </row>
     <row r="9">
@@ -842,34 +842,36 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.271</v>
+        <v>-3.175</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.024</v>
+        <v>-2.93</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.863</v>
+        <v>-2.767</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.249</v>
+        <v>-3.154</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.377</v>
+        <v>-4.097</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.863</v>
+        <v>-2.767</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.973</v>
+        <v>-1.823</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>-1.823</v>
+      </c>
       <c r="N9" t="n">
-        <v>-1.973</v>
+        <v>-1.823</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.973</v>
+        <v>-1.823</v>
       </c>
     </row>
     <row r="10">
@@ -887,36 +889,36 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.109</v>
+        <v>1.192</v>
       </c>
       <c r="E10" t="n">
-        <v>1.642</v>
+        <v>1.721</v>
       </c>
       <c r="F10" t="n">
-        <v>1.61</v>
+        <v>1.692</v>
       </c>
       <c r="G10" t="n">
-        <v>1.149</v>
+        <v>1.232</v>
       </c>
       <c r="H10" t="n">
-        <v>1.624</v>
+        <v>1.694</v>
       </c>
       <c r="I10" t="n">
-        <v>1.642</v>
+        <v>1.721</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.31</v>
+        <v>-0.147</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.608</v>
+        <v>5.882</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5.608</v>
+        <v>5.882</v>
       </c>
       <c r="O10" t="n">
-        <v>5.608</v>
+        <v>5.882</v>
       </c>
     </row>
     <row r="11">
@@ -934,36 +936,36 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.239</v>
+        <v>0.585</v>
       </c>
       <c r="E11" t="n">
-        <v>1.148</v>
+        <v>1.484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.734</v>
+        <v>1.078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.743</v>
+        <v>1.001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.852</v>
       </c>
       <c r="I11" t="n">
-        <v>1.148</v>
+        <v>1.484</v>
       </c>
       <c r="J11" t="n">
-        <v>1.448</v>
+        <v>1.73</v>
       </c>
       <c r="K11" t="n">
-        <v>1.449</v>
+        <v>1.73</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.448</v>
+        <v>1.73</v>
       </c>
       <c r="O11" t="n">
-        <v>1.449</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="12">
@@ -981,36 +983,34 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.205</v>
+        <v>0.345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.603</v>
+        <v>0.74</v>
       </c>
       <c r="F12" t="n">
-        <v>0.618</v>
+        <v>0.757</v>
       </c>
       <c r="G12" t="n">
-        <v>0.245</v>
+        <v>0.384</v>
       </c>
       <c r="H12" t="n">
-        <v>0.301</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>0.618</v>
+        <v>0.757</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.472</v>
+        <v>-0.28</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>0.764</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>0.764</v>
+        <v>-0.28</v>
       </c>
       <c r="O12" t="n">
-        <v>0.764</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="13">
@@ -1028,34 +1028,34 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.021</v>
+        <v>0.97</v>
       </c>
       <c r="E13" t="n">
-        <v>1.738</v>
+        <v>1.657</v>
       </c>
       <c r="F13" t="n">
-        <v>1.512</v>
+        <v>1.463</v>
       </c>
       <c r="G13" t="n">
-        <v>1.089</v>
+        <v>1.032</v>
       </c>
       <c r="H13" t="n">
-        <v>0.641</v>
+        <v>0.552</v>
       </c>
       <c r="I13" t="n">
-        <v>1.738</v>
+        <v>1.657</v>
       </c>
       <c r="J13" t="n">
-        <v>1.361</v>
+        <v>1.371</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.361</v>
+        <v>1.371</v>
       </c>
       <c r="O13" t="n">
-        <v>1.738</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="14">
@@ -1073,34 +1073,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.894</v>
+        <v>3.015</v>
       </c>
       <c r="E14" t="n">
-        <v>3.316</v>
+        <v>3.426</v>
       </c>
       <c r="F14" t="n">
-        <v>3.341</v>
+        <v>3.453</v>
       </c>
       <c r="G14" t="n">
-        <v>2.918</v>
+        <v>3.04</v>
       </c>
       <c r="H14" t="n">
-        <v>2.988</v>
+        <v>2.961</v>
       </c>
       <c r="I14" t="n">
-        <v>3.341</v>
+        <v>3.453</v>
       </c>
       <c r="J14" t="n">
-        <v>2.591</v>
+        <v>2.695</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.591</v>
+        <v>2.695</v>
       </c>
       <c r="O14" t="n">
-        <v>3.341</v>
+        <v>3.453</v>
       </c>
     </row>
     <row r="15">
@@ -1118,34 +1118,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.687</v>
+        <v>-2.558</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.269</v>
+        <v>-2.139</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.664</v>
+        <v>-2.541</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.979</v>
+        <v>-3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.269</v>
+        <v>-2.139</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.713</v>
+        <v>-0.822</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.713</v>
+        <v>-0.822</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.713</v>
+        <v>-0.822</v>
       </c>
     </row>
     <row r="16">
@@ -1163,34 +1163,36 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.173</v>
+        <v>2.129</v>
       </c>
       <c r="E16" t="n">
-        <v>3.214</v>
+        <v>3.187</v>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>2.617</v>
       </c>
       <c r="G16" t="n">
-        <v>2.401</v>
+        <v>2.366</v>
       </c>
       <c r="H16" t="n">
-        <v>2.21</v>
+        <v>1.949</v>
       </c>
       <c r="I16" t="n">
-        <v>3.214</v>
+        <v>3.187</v>
       </c>
       <c r="J16" t="n">
-        <v>2.838</v>
+        <v>2.844</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>3.483</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.838</v>
+        <v>3.483</v>
       </c>
       <c r="O16" t="n">
-        <v>3.214</v>
+        <v>3.483</v>
       </c>
     </row>
     <row r="17">
@@ -1208,34 +1210,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.952</v>
+        <v>-0.789</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.607</v>
+        <v>-0.442</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.55</v>
+        <v>-0.387</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.917</v>
+        <v>-0.754</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3</v>
+        <v>-0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3</v>
+        <v>-0.06</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.104</v>
+        <v>-1.016</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.104</v>
+        <v>-1.016</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.3</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="18">
@@ -1253,34 +1255,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.182</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.878</v>
+        <v>-0.37</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.775</v>
+        <v>-0.276</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.153</v>
+        <v>-0.652</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.278</v>
+        <v>-1.484</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.775</v>
+        <v>-0.276</v>
       </c>
       <c r="J18" t="n">
-        <v>0.078</v>
+        <v>0.302</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.078</v>
+        <v>0.302</v>
       </c>
       <c r="O18" t="n">
-        <v>0.078</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="19">
@@ -1298,34 +1300,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.653</v>
+        <v>-3.393</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.418</v>
+        <v>-3.107</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.24</v>
+        <v>-2.98</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.635</v>
+        <v>-3.367</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.482</v>
+        <v>-5</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.24</v>
+        <v>-2.98</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.823</v>
+        <v>-0.444</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.823</v>
+        <v>-0.444</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.823</v>
+        <v>-0.444</v>
       </c>
     </row>
     <row r="20">
@@ -1343,38 +1345,36 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.404</v>
+        <v>-2.364</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.084</v>
+        <v>-2.037</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.983</v>
+        <v>-1.944</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.375</v>
+        <v>-2.333</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.265</v>
+        <v>-2.275</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.983</v>
+        <v>-1.944</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.249</v>
+        <v>-1.4</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.421</v>
+        <v>-1.454</v>
       </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>-0.752</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>-0.752</v>
+        <v>-1.4</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.752</v>
+        <v>-1.454</v>
       </c>
     </row>
     <row r="21">
@@ -1392,34 +1392,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.256</v>
+        <v>-0.914</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.961</v>
+        <v>-0.607</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.836</v>
+        <v>-0.495</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.234</v>
+        <v>-0.889</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.542</v>
+        <v>-2.025</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.836</v>
+        <v>-0.495</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.12</v>
+        <v>0.053</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.12</v>
+        <v>0.053</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.12</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="22">
@@ -1437,36 +1437,34 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.096</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.475</v>
+        <v>1.134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.505</v>
+        <v>1.161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.138</v>
+        <v>0.711</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6830000000000001</v>
+        <v>1.223</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6830000000000001</v>
+        <v>1.223</v>
       </c>
       <c r="J22" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.973</v>
-      </c>
+        <v>0.929</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>0.973</v>
+        <v>0.929</v>
       </c>
       <c r="O22" t="n">
-        <v>0.973</v>
+        <v>1.223</v>
       </c>
     </row>
     <row r="23">
@@ -1484,34 +1482,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.962</v>
+        <v>2.196</v>
       </c>
       <c r="E23" t="n">
-        <v>2.496</v>
+        <v>2.736</v>
       </c>
       <c r="F23" t="n">
-        <v>2.458</v>
+        <v>2.689</v>
       </c>
       <c r="G23" t="n">
-        <v>1.977</v>
+        <v>2.212</v>
       </c>
       <c r="H23" t="n">
-        <v>1.661</v>
+        <v>1.788</v>
       </c>
       <c r="I23" t="n">
-        <v>2.496</v>
+        <v>2.736</v>
       </c>
       <c r="J23" t="n">
-        <v>1.494</v>
+        <v>1.804</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.494</v>
+        <v>1.804</v>
       </c>
       <c r="O23" t="n">
-        <v>2.496</v>
+        <v>2.736</v>
       </c>
     </row>
     <row r="24">
@@ -1529,36 +1527,36 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.153</v>
+        <v>-0.037</v>
       </c>
       <c r="E24" t="n">
-        <v>0.211</v>
+        <v>0.317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.245</v>
+        <v>0.359</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.116</v>
+        <v>-0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.967</v>
+        <v>0.706</v>
       </c>
       <c r="I24" t="n">
-        <v>0.967</v>
+        <v>0.706</v>
       </c>
       <c r="J24" t="n">
-        <v>0.987</v>
+        <v>0.806</v>
       </c>
       <c r="K24" t="n">
-        <v>0.988</v>
+        <v>0.806</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>0.987</v>
+        <v>0.806</v>
       </c>
       <c r="O24" t="n">
-        <v>0.988</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="25">
@@ -1576,34 +1574,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427</v>
+        <v>0.649</v>
       </c>
       <c r="E25" t="n">
-        <v>0.754</v>
+        <v>0.976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.832</v>
+        <v>1.054</v>
       </c>
       <c r="G25" t="n">
-        <v>0.458</v>
+        <v>0.68</v>
       </c>
       <c r="H25" t="n">
-        <v>0.694</v>
+        <v>0.796</v>
       </c>
       <c r="I25" t="n">
-        <v>0.832</v>
+        <v>1.054</v>
       </c>
       <c r="J25" t="n">
-        <v>0.413</v>
+        <v>0.581</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.413</v>
+        <v>0.581</v>
       </c>
       <c r="O25" t="n">
-        <v>0.832</v>
+        <v>1.054</v>
       </c>
     </row>
     <row r="26">
@@ -1621,36 +1619,36 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.043</v>
+        <v>0.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.285</v>
+        <v>0.526</v>
       </c>
       <c r="F26" t="n">
-        <v>0.371</v>
+        <v>0.613</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.016</v>
+        <v>0.226</v>
       </c>
       <c r="H26" t="n">
-        <v>0.047</v>
+        <v>0.369</v>
       </c>
       <c r="I26" t="n">
-        <v>0.371</v>
+        <v>0.613</v>
       </c>
       <c r="J26" t="n">
-        <v>0.328</v>
+        <v>0.529</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.371</v>
+        <v>0.613</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.613</v>
       </c>
       <c r="O26" t="n">
-        <v>0.371</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="27">
@@ -1668,34 +1666,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.151</v>
+        <v>2.296</v>
       </c>
       <c r="E27" t="n">
-        <v>2.793</v>
+        <v>2.942</v>
       </c>
       <c r="F27" t="n">
-        <v>2.648</v>
+        <v>2.79</v>
       </c>
       <c r="G27" t="n">
-        <v>2.188</v>
+        <v>2.337</v>
       </c>
       <c r="H27" t="n">
-        <v>0.797</v>
+        <v>0.907</v>
       </c>
       <c r="I27" t="n">
-        <v>2.793</v>
+        <v>2.942</v>
       </c>
       <c r="J27" t="n">
-        <v>2.056</v>
+        <v>2.246</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.056</v>
+        <v>2.246</v>
       </c>
       <c r="O27" t="n">
-        <v>2.793</v>
+        <v>2.942</v>
       </c>
     </row>
     <row r="28">
@@ -1713,34 +1711,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.314</v>
+        <v>-3.201</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.028</v>
+        <v>-2.925</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.898</v>
+        <v>-2.785</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.307</v>
+        <v>-3.194</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.548</v>
+        <v>-4.483</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.898</v>
+        <v>-2.785</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.232</v>
+        <v>-2.107</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.232</v>
+        <v>-2.107</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.232</v>
+        <v>-2.107</v>
       </c>
     </row>
   </sheetData>
